--- a/Assets/Excel/EntityTable.xlsx
+++ b/Assets/Excel/EntityTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91C7A8-CF1C-4A75-9408-AF0B6A2C9827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C3C56-0F4C-403F-A1F3-ECB38B7ECF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3555" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EntityTable" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
         <v>1.5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -629,7 +629,7 @@
         <v>1.5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -658,7 +658,7 @@
         <v>1.5</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
         <v>0.3</v>

--- a/Assets/Excel/EntityTable.xlsx
+++ b/Assets/Excel/EntityTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C3C56-0F4C-403F-A1F3-ECB38B7ECF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7A76C2-D40F-4E43-B4FE-84D18CB126FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3555" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
         <v>1.5</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -629,7 +629,7 @@
         <v>1.5</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I4">
         <v>0.3</v>

--- a/Assets/Excel/EntityTable.xlsx
+++ b/Assets/Excel/EntityTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7A76C2-D40F-4E43-B4FE-84D18CB126FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62179F9-2343-4EA4-AAE3-F159A470C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3555" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
         <v>1.5</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -629,7 +629,7 @@
         <v>1.5</v>
       </c>
       <c r="H4">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -658,7 +658,7 @@
         <v>1.5</v>
       </c>
       <c r="H5">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0.3</v>

--- a/Assets/Excel/EntityTable.xlsx
+++ b/Assets/Excel/EntityTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62179F9-2343-4EA4-AAE3-F159A470C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821870AE-D06E-49EF-BAE5-0CF907EC8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3555" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2100" windowWidth="23235" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EntityTable" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>player</t>
-  </si>
-  <si>
     <t>monster1</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>attackSpeedGrowth</t>
+  </si>
+  <si>
+    <t>Player</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A066FD5-1320-4869-B2F7-7E4604A9181D}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,28 +524,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -553,28 +553,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>1.5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -696,28 +696,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -725,28 +725,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/Assets/Excel/EntityTable.xlsx
+++ b/Assets/Excel/EntityTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821870AE-D06E-49EF-BAE5-0CF907EC8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0746953-8AF6-422B-B713-C3AF251BA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2100" windowWidth="23235" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2100" windowWidth="23235" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EntityTable" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A066FD5-1320-4869-B2F7-7E4604A9181D}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +600,7 @@
         <v>1.5</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0.5</v>

--- a/Assets/Excel/EntityTable.xlsx
+++ b/Assets/Excel/EntityTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0746953-8AF6-422B-B713-C3AF251BA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60B9F0-2684-4C70-93EA-A636FB510F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2100" windowWidth="23235" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2040" windowWidth="23250" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EntityTable" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -643,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>5</v>
